--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H2">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I2">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J2">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N2">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P2">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q2">
-        <v>4.901259608603334</v>
+        <v>0.08590601329266667</v>
       </c>
       <c r="R2">
-        <v>44.11133647743</v>
+        <v>0.773154119634</v>
       </c>
       <c r="S2">
-        <v>0.1528356278513264</v>
+        <v>0.005726536911228365</v>
       </c>
       <c r="T2">
-        <v>0.1528356278513264</v>
+        <v>0.005726536911228364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H3">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I3">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J3">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
         <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P3">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q3">
-        <v>3.040229166756666</v>
+        <v>0.1611223610793334</v>
       </c>
       <c r="R3">
-        <v>27.36206250081</v>
+        <v>1.450101249714</v>
       </c>
       <c r="S3">
-        <v>0.09480324867867561</v>
+        <v>0.01074049548547529</v>
       </c>
       <c r="T3">
-        <v>0.09480324867867559</v>
+        <v>0.01074049548547529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H4">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I4">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J4">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P4">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q4">
-        <v>1.170166539096667</v>
+        <v>0.06201506047533333</v>
       </c>
       <c r="R4">
-        <v>10.53149885187</v>
+        <v>0.5581355442780001</v>
       </c>
       <c r="S4">
-        <v>0.03648921950176315</v>
+        <v>0.004133954297869522</v>
       </c>
       <c r="T4">
-        <v>0.03648921950176314</v>
+        <v>0.00413395429786952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.519535</v>
       </c>
       <c r="I5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N5">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P5">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q5">
-        <v>11.63907369766056</v>
+        <v>3.84932677022389</v>
       </c>
       <c r="R5">
-        <v>104.751663278945</v>
+        <v>34.64394093201501</v>
       </c>
       <c r="S5">
-        <v>0.3629404027216419</v>
+        <v>0.2565980073824272</v>
       </c>
       <c r="T5">
-        <v>0.3629404027216419</v>
+        <v>0.2565980073824271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.519535</v>
       </c>
       <c r="I6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N6">
         <v>18.461809</v>
       </c>
       <c r="O6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P6">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q6">
-        <v>7.219664770979445</v>
+        <v>7.219664770979446</v>
       </c>
       <c r="R6">
-        <v>64.976982938815</v>
+        <v>64.97698293881501</v>
       </c>
       <c r="S6">
-        <v>0.2251302902241447</v>
+        <v>0.4812663888482201</v>
       </c>
       <c r="T6">
-        <v>0.2251302902241447</v>
+        <v>0.4812663888482199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.519535</v>
       </c>
       <c r="I7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>7.105843</v>
       </c>
       <c r="O7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P7">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q7">
         <v>2.778807015889445</v>
@@ -880,10 +880,10 @@
         <v>25.009263143005</v>
       </c>
       <c r="S7">
-        <v>0.08665134044433061</v>
+        <v>0.1852366363627964</v>
       </c>
       <c r="T7">
-        <v>0.08665134044433061</v>
+        <v>0.1852366363627964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.214649</v>
       </c>
       <c r="I8">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J8">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.920975666666667</v>
+        <v>3.281109666666667</v>
       </c>
       <c r="N8">
-        <v>29.762927</v>
+        <v>9.843329000000001</v>
       </c>
       <c r="O8">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="P8">
-        <v>0.5379109985456686</v>
+        <v>0.2779739143628921</v>
       </c>
       <c r="Q8">
-        <v>0.7098425019581112</v>
+        <v>0.2347623029467778</v>
       </c>
       <c r="R8">
-        <v>6.388582517623</v>
+        <v>2.112860726521</v>
       </c>
       <c r="S8">
-        <v>0.02213496797270029</v>
+        <v>0.01564937006923659</v>
       </c>
       <c r="T8">
-        <v>0.02213496797270028</v>
+        <v>0.01564937006923659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.214649</v>
       </c>
       <c r="I9">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J9">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.153936333333333</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N9">
         <v>18.461809</v>
       </c>
       <c r="O9">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808726</v>
       </c>
       <c r="P9">
-        <v>0.3336637594195426</v>
+        <v>0.5213583040808725</v>
       </c>
       <c r="Q9">
-        <v>0.4403120933378888</v>
+        <v>0.440312093337889</v>
       </c>
       <c r="R9">
-        <v>3.962808840040999</v>
+        <v>3.962808840041001</v>
       </c>
       <c r="S9">
-        <v>0.01373022051672236</v>
+        <v>0.02935141974717728</v>
       </c>
       <c r="T9">
-        <v>0.01373022051672236</v>
+        <v>0.02935141974717726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.214649</v>
       </c>
       <c r="I10">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J10">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.105843</v>
       </c>
       <c r="O10">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="P10">
-        <v>0.1284252420347888</v>
+        <v>0.2006677815562353</v>
       </c>
       <c r="Q10">
         <v>0.1694735660118889</v>
@@ -1066,10 +1066,10 @@
         <v>1.525262094107</v>
       </c>
       <c r="S10">
-        <v>0.005284682088694989</v>
+        <v>0.01129719089556941</v>
       </c>
       <c r="T10">
-        <v>0.005284682088694989</v>
+        <v>0.01129719089556941</v>
       </c>
     </row>
   </sheetData>
